--- a/data/mod2_marks.xlsx
+++ b/data/mod2_marks.xlsx
@@ -10,6 +10,9 @@
     <sheet name="Data Engineer" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Machine Learning" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Data Engineer'!$A$1:$L$55</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
@@ -2883,6 +2886,9 @@
       <c r="A40" t="s">
         <v>131</v>
       </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
       <c r="K40" t="str">
         <f t="shared" si="3"/>
         <v>Незачёт</v>
@@ -2979,6 +2985,9 @@
       <c r="A48" t="s">
         <v>139</v>
       </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
       <c r="K48" t="str">
         <f t="shared" si="3"/>
         <v>Незачёт</v>
@@ -3072,6 +3081,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L55"/>
   <sortState ref="A2:A55">
     <sortCondition ref="A2:A55"/>
   </sortState>
